--- a/data/trans_orig/P21D1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>60151</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45437</v>
+        <v>44065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76151</v>
+        <v>77990</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3045717772913117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2300646892312929</v>
+        <v>0.2231188253746465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3855825030535082</v>
+        <v>0.3948935598198936</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -762,19 +762,19 @@
         <v>40541</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28940</v>
+        <v>30613</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53291</v>
+        <v>54802</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1503029899084775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1072946447097324</v>
+        <v>0.1134969044455259</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1975739481571864</v>
+        <v>0.2031757255677428</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -783,19 +783,19 @@
         <v>100692</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81909</v>
+        <v>80011</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122979</v>
+        <v>120850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2155125471730002</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.175310095255438</v>
+        <v>0.1712483554844614</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2632135001877935</v>
+        <v>0.2586558390240492</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>133827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118081</v>
+        <v>115720</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149317</v>
+        <v>149907</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6776246118491623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5978959855022609</v>
+        <v>0.5859375588139304</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7560524586245758</v>
+        <v>0.7590439143077894</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>325</v>
@@ -833,19 +833,19 @@
         <v>223644</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>210984</v>
+        <v>209031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234842</v>
+        <v>233639</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8291494814306742</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7822115164177145</v>
+        <v>0.7749720985758288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.870663916975399</v>
+        <v>0.866207150456628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>468</v>
@@ -854,19 +854,19 @@
         <v>357471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>336656</v>
+        <v>337258</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>377614</v>
+        <v>377885</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7650997807257965</v>
+        <v>0.7650997807257967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7205482128123339</v>
+        <v>0.7218375878574861</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8082117854002838</v>
+        <v>0.8087910920859679</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>3516</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>922</v>
+        <v>943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9808</v>
+        <v>11257</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.01780361085952596</v>
+        <v>0.01780361085952595</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004668524061489935</v>
+        <v>0.004774707581580833</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04966145641562864</v>
+        <v>0.05699799316535416</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -904,19 +904,19 @@
         <v>4794</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2116</v>
+        <v>2300</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9535</v>
+        <v>10109</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01777213712250609</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007845496400872553</v>
+        <v>0.00852562540789897</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03535007466983923</v>
+        <v>0.03747869679643345</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -925,19 +925,19 @@
         <v>8310</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4129</v>
+        <v>4252</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15713</v>
+        <v>15124</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01778544109987795</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008837830645179514</v>
+        <v>0.009100778057816557</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03363055552244646</v>
+        <v>0.0323695795657056</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4116</v>
+        <v>3864</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002775391538342231</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01525895351349744</v>
+        <v>0.01432643589669002</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4096</v>
+        <v>3886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001602231001325282</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008765938734020567</v>
+        <v>0.008316920533124788</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>130895</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>110224</v>
+        <v>107695</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>153503</v>
+        <v>155115</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.330445468057561</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2782613695214075</v>
+        <v>0.2718771620149296</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3875194881775899</v>
+        <v>0.3915870948302925</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>98</v>
@@ -1113,19 +1113,19 @@
         <v>85492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>70968</v>
+        <v>70584</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>102639</v>
+        <v>102862</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.178351221372067</v>
+        <v>0.1783512213720669</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1480508445416874</v>
+        <v>0.1472512079414414</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2141226212358499</v>
+        <v>0.2145885000726668</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>192</v>
@@ -1134,19 +1134,19 @@
         <v>216388</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>188799</v>
+        <v>188198</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>246024</v>
+        <v>247013</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.247168662214135</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2156560135883009</v>
+        <v>0.2149696173437999</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2810209103718385</v>
+        <v>0.2821504157650239</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>261249</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>239023</v>
+        <v>237534</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>282749</v>
+        <v>283788</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.659522001200068</v>
+        <v>0.6595220012000681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6034124019060684</v>
+        <v>0.5996556613793879</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7137992119392644</v>
+        <v>0.7164216323382679</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>576</v>
@@ -1184,19 +1184,19 @@
         <v>384382</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>366515</v>
+        <v>366129</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>399733</v>
+        <v>400256</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.801886026182427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7646133516045363</v>
+        <v>0.7638087630623781</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8339122715504035</v>
+        <v>0.8350018934832055</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>844</v>
@@ -1205,19 +1205,19 @@
         <v>645630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>615602</v>
+        <v>615234</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>673391</v>
+        <v>675103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7374711776213171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7031719015043939</v>
+        <v>0.7027511807352518</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.769181511783154</v>
+        <v>0.7711363532057995</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>3974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1005</v>
+        <v>1042</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9470</v>
+        <v>8994</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01003253074237092</v>
+        <v>0.01003253074237093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002538247360476639</v>
+        <v>0.002629641125049997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02390757097619685</v>
+        <v>0.02270427762247398</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1255,19 +1255,19 @@
         <v>9473</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5516</v>
+        <v>5536</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14576</v>
+        <v>15458</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0197627524455061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01150638081896412</v>
+        <v>0.01154887711482861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03040802315075315</v>
+        <v>0.03224871395227125</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1276,19 +1276,19 @@
         <v>13447</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8772</v>
+        <v>8291</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21356</v>
+        <v>20360</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01536016016454788</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01001969490543731</v>
+        <v>0.009469967155421061</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02439340325051115</v>
+        <v>0.0232565117480775</v>
       </c>
     </row>
     <row r="12">
@@ -1427,19 +1427,19 @@
         <v>101049</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81806</v>
+        <v>83256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123283</v>
+        <v>123281</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2476691829506816</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2005043259067065</v>
+        <v>0.2040600182371476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3021631926495876</v>
+        <v>0.3021600898229825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -1448,19 +1448,19 @@
         <v>87098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72538</v>
+        <v>72657</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103117</v>
+        <v>103315</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.200223653013381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1667535412111116</v>
+        <v>0.167027817738002</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2370490462856233</v>
+        <v>0.2375038210973316</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>198</v>
@@ -1469,19 +1469,19 @@
         <v>188147</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>164432</v>
+        <v>164253</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>218092</v>
+        <v>215321</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2231865580513118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1950553143301446</v>
+        <v>0.1948433623218018</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.25870930768807</v>
+        <v>0.2554221505943547</v>
       </c>
     </row>
     <row r="15">
@@ -1498,19 +1498,19 @@
         <v>301022</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>279417</v>
+        <v>278424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>321577</v>
+        <v>318896</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7377977944919805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6848444373954407</v>
+        <v>0.6824116457887289</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7881788704772512</v>
+        <v>0.7816090357365131</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>491</v>
@@ -1519,19 +1519,19 @@
         <v>336338</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>319720</v>
+        <v>319154</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>351972</v>
+        <v>351825</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.7731864571689817</v>
+        <v>0.7731864571689818</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7349845596122428</v>
+        <v>0.7336846238957545</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8091263573977323</v>
+        <v>0.8087888449666438</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>785</v>
@@ -1540,19 +1540,19 @@
         <v>637359</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>606135</v>
+        <v>608898</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>662213</v>
+        <v>663407</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7560588900083823</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7190196729733495</v>
+        <v>0.722297498369719</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7855415802293136</v>
+        <v>0.7869573205903594</v>
       </c>
     </row>
     <row r="16">
@@ -1569,19 +1569,19 @@
         <v>5929</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2383</v>
+        <v>2330</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13280</v>
+        <v>12706</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01453302255733794</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005840221382140907</v>
+        <v>0.005711113722054512</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03255004985131132</v>
+        <v>0.03114138052158264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1590,19 +1590,19 @@
         <v>11567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6167</v>
+        <v>5597</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22566</v>
+        <v>21432</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02658988981763727</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01417760396516684</v>
+        <v>0.01286593888881686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05187514600016632</v>
+        <v>0.04926875486952464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1611,19 +1611,19 @@
         <v>17496</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10044</v>
+        <v>9627</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28956</v>
+        <v>28442</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02075455194030587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01191513609980836</v>
+        <v>0.01142008792143423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0343491481285073</v>
+        <v>0.03373949491301832</v>
       </c>
     </row>
     <row r="17">
@@ -1762,19 +1762,19 @@
         <v>121666</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101918</v>
+        <v>101310</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147211</v>
+        <v>145751</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2214821533576316</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1855336539436559</v>
+        <v>0.1844268978448861</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2679847029845933</v>
+        <v>0.265328318465799</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -1783,19 +1783,19 @@
         <v>98693</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>81623</v>
+        <v>82761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117131</v>
+        <v>117973</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1979383844819932</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1637014021981157</v>
+        <v>0.1659842218737531</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.234916067189245</v>
+        <v>0.236605450039432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>222</v>
@@ -1804,19 +1804,19 @@
         <v>220359</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>192688</v>
+        <v>196117</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>251086</v>
+        <v>251919</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2102800149008147</v>
+        <v>0.2102800149008146</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1838742735527585</v>
+        <v>0.1871466538860039</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2396013687773309</v>
+        <v>0.2403962018928388</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>412893</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>389510</v>
+        <v>385618</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>436524</v>
+        <v>433948</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7516373559414911</v>
+        <v>0.7516373559414912</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.709070287780537</v>
+        <v>0.7019844744104813</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7946553630798187</v>
+        <v>0.7899665925526931</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>539</v>
@@ -1854,19 +1854,19 @@
         <v>390952</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>372153</v>
+        <v>371682</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>408697</v>
+        <v>407208</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7840894275655919</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7463847144135254</v>
+        <v>0.7454414858693543</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.819676837915862</v>
+        <v>0.8166918475377262</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>936</v>
@@ -1875,19 +1875,19 @@
         <v>803846</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>771047</v>
+        <v>771310</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>832083</v>
+        <v>829555</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7670780698502944</v>
+        <v>0.7670780698502943</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7357791739026882</v>
+        <v>0.736030235102423</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7940234888598698</v>
+        <v>0.7916114572882108</v>
       </c>
     </row>
     <row r="21">
@@ -1904,19 +1904,19 @@
         <v>14766</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6909</v>
+        <v>6508</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32638</v>
+        <v>32820</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02688049070087725</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01257787067106973</v>
+        <v>0.01184642810732348</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05941446086455522</v>
+        <v>0.0597461593133012</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1925,19 +1925,19 @@
         <v>8259</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4088</v>
+        <v>4324</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13928</v>
+        <v>14148</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01656366454781089</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008198476471816448</v>
+        <v>0.008672651832843574</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02793441114908174</v>
+        <v>0.02837511980959132</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -1946,19 +1946,19 @@
         <v>23025</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13797</v>
+        <v>13232</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>39008</v>
+        <v>38879</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.02197173902173788</v>
+        <v>0.02197173902173787</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01316590158357548</v>
+        <v>0.01262688541461503</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0372237325979745</v>
+        <v>0.03710098550621653</v>
       </c>
     </row>
     <row r="22">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4194</v>
+        <v>3482</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001408523404604009</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008410505904167025</v>
+        <v>0.006984220219711792</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2012,16 +2012,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3451</v>
+        <v>3857</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0006701762271531578</v>
+        <v>0.0006701762271531577</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003293440356419746</v>
+        <v>0.003680376981550941</v>
       </c>
     </row>
     <row r="23">
@@ -2113,19 +2113,19 @@
         <v>413762</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>371530</v>
+        <v>374776</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>454376</v>
+        <v>457547</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2667814608472034</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2395516733175385</v>
+        <v>0.241644643993005</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2929684218940836</v>
+        <v>0.2950127789783264</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>375</v>
@@ -2134,19 +2134,19 @@
         <v>311824</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>283424</v>
+        <v>281792</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>343502</v>
+        <v>341933</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1853135976955591</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1684358239026765</v>
+        <v>0.1674656718220961</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2041392175192505</v>
+        <v>0.203207277099229</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>699</v>
@@ -2155,19 +2155,19 @@
         <v>725586</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>674245</v>
+        <v>675366</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>775802</v>
+        <v>775701</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2243879479648594</v>
+        <v>0.2243879479648593</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2085109669330433</v>
+        <v>0.2088573464575399</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2399173108870428</v>
+        <v>0.2398861521040608</v>
       </c>
     </row>
     <row r="25">
@@ -2184,19 +2184,19 @@
         <v>1108991</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1065936</v>
+        <v>1064996</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1152526</v>
+        <v>1147734</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.715045153888322</v>
+        <v>0.7150451538883222</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6872850449098447</v>
+        <v>0.6866786917270287</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7431156803882082</v>
+        <v>0.7400254734378785</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1931</v>
@@ -2205,19 +2205,19 @@
         <v>1335316</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1303595</v>
+        <v>1302654</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1366420</v>
+        <v>1366495</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7935634971559117</v>
+        <v>0.7935634971559118</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7747123850479001</v>
+        <v>0.7741528804442072</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8120484209385036</v>
+        <v>0.81209318077291</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3033</v>
@@ -2226,19 +2226,19 @@
         <v>2444306</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2393847</v>
+        <v>2391823</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2498390</v>
+        <v>2493225</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7559038221784046</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7402991572229665</v>
+        <v>0.7396731885564869</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7726291357372184</v>
+        <v>0.7710319139324459</v>
       </c>
     </row>
     <row r="26">
@@ -2255,19 +2255,19 @@
         <v>28186</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17534</v>
+        <v>16893</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45676</v>
+        <v>46067</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01817338526447454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0113055069821635</v>
+        <v>0.01089221207278724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02945034242578934</v>
+        <v>0.02970252512899099</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -2276,19 +2276,19 @@
         <v>34092</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24619</v>
+        <v>24509</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47182</v>
+        <v>45600</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02026065252393451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01463065888461877</v>
+        <v>0.01456558319006513</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02803967355475291</v>
+        <v>0.02709971327926895</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>66</v>
@@ -2297,19 +2297,19 @@
         <v>62278</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>47590</v>
+        <v>47987</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>82635</v>
+        <v>82399</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01925953860187216</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01471733054497566</v>
+        <v>0.01484015935485957</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02555503714764535</v>
+        <v>0.02548188978822616</v>
       </c>
     </row>
     <row r="27">
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4853</v>
+        <v>5201</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0008622526245946174</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.002884087387893889</v>
+        <v>0.003091096217523284</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0004486912548638401</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.001376371920262236</v>
+        <v>0.001373334700598828</v>
       </c>
     </row>
     <row r="28">
